--- a/excel_PCA_analysis/factor_loadings_big5.xlsx
+++ b/excel_PCA_analysis/factor_loadings_big5.xlsx
@@ -5,23 +5,22 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/selinimmel/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/selinimmel/Desktop/Hult/Boston/Semester II/Machine Learning/assignments/A2_team project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E965DB0-AD19-8843-8DF8-102732A442AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC690E9-9997-D24D-AE7A-7CDD39701330}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="105">
   <si>
     <t>Extroversion</t>
   </si>
@@ -227,15 +226,9 @@
     <t>The Networker</t>
   </si>
   <si>
-    <t>(Agreeableness)</t>
-  </si>
-  <si>
     <t>- extremely talkative and outgoing, likes to connect with as many people as possible, they are confident in what they do and excited to share whatever they are doing with team members</t>
   </si>
   <si>
-    <t>(- they are trusting and expect the same from others. Their foster cooperation, helping the team bound)</t>
-  </si>
-  <si>
     <t>- this person is extremely emotionally stable and defuses any situation quickly &amp; expertly. They help the team get through tough times that otherwise wears members down, allowing them to be productive in times of high pressure</t>
   </si>
   <si>
@@ -243,6 +236,105 @@
   </si>
   <si>
     <t>The Unifier</t>
+  </si>
+  <si>
+    <t>Hobbies</t>
+  </si>
+  <si>
+    <t>Laptop choice implications</t>
+  </si>
+  <si>
+    <t>PC Owners</t>
+  </si>
+  <si>
+    <t>Higher Importance</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Style</t>
+  </si>
+  <si>
+    <t>Higher:</t>
+  </si>
+  <si>
+    <t>- greater importance placed on costs</t>
+  </si>
+  <si>
+    <t>Higher</t>
+  </si>
+  <si>
+    <t>- will choose Windows over mac</t>
+  </si>
+  <si>
+    <t>- lesser importance for ease of use</t>
+  </si>
+  <si>
+    <t>- greater importance on reliability</t>
+  </si>
+  <si>
+    <t>- lesser importance on style</t>
+  </si>
+  <si>
+    <t>Ease of use</t>
+  </si>
+  <si>
+    <t>Tech-oriented Description</t>
+  </si>
+  <si>
+    <t>Business/Team-oriented  Description</t>
+  </si>
+  <si>
+    <t>How can we support them?</t>
+  </si>
+  <si>
+    <t>aka more likely to buy a PC</t>
+  </si>
+  <si>
+    <t>This person likes to be organised and have a clean and clear workspace to organise their thoughts in. They don't need many extra features and applications, but rather have a clean interface. This person will highly value an easy and intuitive interface that allows viewing several tasks at once which will make handling teams and responsibilities easier for them. Though their tendency to Conscientiousness would lead us to believe that they tend to buy a Windows Laptop rather than the Apple product (according to the paper), their explicit openness to new experiences makes them accepting of the idea that they would switch to a Mac Laptop and (hopefully) quickly be convinced by the improved handlability and user interface, ultimately converting them from Windows to Apple.</t>
+  </si>
+  <si>
+    <t>Clearly show the benefits that the cleaner Apple interface has, i.e. switching between windows, the many finger-swipe-actions possible on the trackpad, the included editing features such as Preview, etc.</t>
+  </si>
+  <si>
+    <t>Reading (modern) literature</t>
+  </si>
+  <si>
+    <t>socialising with old and new friends</t>
+  </si>
+  <si>
+    <t>planning</t>
+  </si>
+  <si>
+    <t>buying small gimicks that will help every aspect (private and professional) stay organised and on track</t>
+  </si>
+  <si>
+    <t>Give them a way to easily and seamlessly transfer all data that they have saved and ammassed of old friends, acquaintances, and network people.</t>
+  </si>
+  <si>
+    <t>The Networker has been using tech to keep track of their contact and connections and stay in touch with everybody from their past and present. The key use of technology and laptops is to stay connected, it is not so important which brand they do this through. At the same time, this persons neurotic tendencies are likley to place more importance on costs and less so on the ease of use, which actually makes them the perfect Windows customer. Their low load in conscientiousness, however, is associated with non-Windows so there could be an "in" for Apple.</t>
+  </si>
+  <si>
+    <t>Parttaking in activities from meetup, etc. where you can get in contact with many people from other companies and businesses</t>
+  </si>
+  <si>
+    <t>volunteering (in &amp; outside company)</t>
+  </si>
+  <si>
+    <t>This persons extreme emotional stability and assertiveness (confidence) does not normally make them chase after trends or 'cool' new technical gadgets. They are sure of who they are and once they have found what works for them they see little need to switch around and try something new. Their low neurotic loadings means that they put ease of use above cost avoidance.</t>
+  </si>
+  <si>
+    <t>Clearly and calmly lay out the superior ease of use of the Mac Laptops vs Windows, show the direct comparison</t>
+  </si>
+  <si>
+    <t>MAC Owners</t>
+  </si>
+  <si>
+    <t>(Competitive) Teamsports where they can really bind their teammates together and further the team-mentaliity to succeed</t>
+  </si>
+  <si>
+    <t>Volunteering with friends</t>
   </si>
 </sst>
 </file>
@@ -481,7 +573,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -498,10 +590,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -514,9 +602,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -526,72 +687,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -937,24 +1055,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:O62"/>
+  <dimension ref="A2:T106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.5" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="30.83203125" customWidth="1"/>
     <col min="4" max="4" width="33.83203125" customWidth="1"/>
     <col min="5" max="6" width="2.33203125" customWidth="1"/>
     <col min="7" max="7" width="8.83203125" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B2" s="1">
         <v>0</v>
       </c>
@@ -970,26 +1092,36 @@
       <c r="F2" s="6">
         <v>4</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="38" t="s">
+      <c r="I2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="17" t="s">
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="15" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P2" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="R2" s="49"/>
+      <c r="S2" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="T2" s="54" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="47">
+      <c r="B3" s="23">
         <v>-0.32014799550006079</v>
       </c>
       <c r="C3" s="3">
@@ -1004,26 +1136,38 @@
       <c r="F3" s="7">
         <v>-0.32790968718367097</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="44" t="s">
+      <c r="I3" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="21" t="s">
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="19" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P3" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="S3" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="T3" s="54" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="47">
+      <c r="B4" s="23">
         <v>0.31955733801550729</v>
       </c>
       <c r="C4" s="3">
@@ -1038,18 +1182,26 @@
       <c r="F4" s="7">
         <v>-0.26154438357802118</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="18" t="s">
+      <c r="H4" s="10"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="16" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P4" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1059,7 +1211,7 @@
       <c r="C5" s="2">
         <v>0.14260614393902971</v>
       </c>
-      <c r="D5" s="47">
+      <c r="D5" s="59">
         <v>0.28245718234571998</v>
       </c>
       <c r="E5" s="7">
@@ -1068,18 +1220,21 @@
       <c r="F5" s="7">
         <v>0.41811116193505649</v>
       </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="18" t="s">
+      <c r="H5" s="10"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="16" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P5" s="50" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1098,18 +1253,19 @@
       <c r="F6" s="7">
         <v>-0.72126274628008991</v>
       </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="18" t="s">
+      <c r="H6" s="10"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="16" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P6" s="16"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1128,131 +1284,144 @@
       <c r="F7" s="7">
         <v>0.35921146914278701</v>
       </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="18" t="s">
+      <c r="H7" s="10"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="16" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="H8" s="12"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="18" t="s">
+      <c r="P7" s="16"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="H8" s="10"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="16" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="H9" s="12"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="18"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="16"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="H9" s="10"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="43"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="19"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C10" s="41"/>
+      <c r="D10" s="42"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="18"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+      <c r="H11" s="10"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="C12" s="58"/>
+      <c r="D12" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="20" t="s">
+      <c r="H12" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="I12" s="26" t="s">
+      <c r="I12" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="21" t="s">
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="19" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="18" t="s">
+      <c r="D13" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="16" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="18" t="s">
+      <c r="H14" s="10"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="16" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="16"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>6</v>
       </c>
@@ -1265,18 +1434,19 @@
       <c r="D15" t="s">
         <v>0</v>
       </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="18" t="s">
+      <c r="H15" s="10"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="16" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="16"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" t="s">
         <v>3</v>
@@ -1284,64 +1454,65 @@
       <c r="C16" t="s">
         <v>1</v>
       </c>
-      <c r="D16" t="s">
-        <v>68</v>
-      </c>
-      <c r="H16" s="12"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="18" t="s">
+      <c r="H16" s="10"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="16" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="16"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" t="s">
         <v>4</v>
       </c>
-      <c r="H17" s="12"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="18" t="s">
+      <c r="H17" s="10"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="16" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="16"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="19" t="s">
+      <c r="H18" s="13"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="17" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="17"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="18"/>
-    </row>
-    <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H19" s="10"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+    </row>
+    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>7</v>
       </c>
@@ -1354,484 +1525,790 @@
       <c r="D20" t="s">
         <v>1</v>
       </c>
-      <c r="H20" s="20" t="s">
+      <c r="H20" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="I20" s="32" t="s">
+      <c r="I20" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="21" t="s">
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="19" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="19"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="18" t="s">
+      <c r="H21" s="10"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="16" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P21" s="16"/>
+    </row>
+    <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="H22" s="10"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="P22" s="16"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B23" s="39"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="P23" s="16"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B24" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="P24" s="16"/>
+    </row>
+    <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="39"/>
+      <c r="C25" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="24"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="P25" s="16"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B26" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+    </row>
+    <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="H22" s="12"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B23" s="40"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B24" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="40"/>
-      <c r="C25" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" s="22"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B26" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="18"/>
-    </row>
-    <row r="27" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22" t="s">
+      <c r="H27" s="10"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+    </row>
+    <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+    </row>
+    <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="24"/>
+      <c r="C30" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="24"/>
+      <c r="H30" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I30" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="P30" s="19"/>
+    </row>
+    <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="P31" s="16"/>
+    </row>
+    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="P32" s="16"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="P33" s="16"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="P34" s="16"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C35" s="24"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="P35" s="17"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="H36" s="10"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="H37" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="I37" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P37" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B38" s="47"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="47"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="27"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="P38" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B39" s="47"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="28"/>
+      <c r="O39" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="P39" s="50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B40" s="47"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="P40" s="16"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B41" s="47"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="27"/>
+      <c r="N41" s="28"/>
+      <c r="O41" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" s="16"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B42" s="47"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="45"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="30"/>
+      <c r="O42" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="P42" s="17"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B43" s="47"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="47"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B44" s="47"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="47"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B45" s="47"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="47"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B46" s="47"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="47"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B47" s="47"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="47"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B48" s="47"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="47"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B49" s="47"/>
+      <c r="C49" s="47"/>
+      <c r="D49" s="47"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B50" s="47"/>
+      <c r="C50" s="47"/>
+      <c r="D50" s="47"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B51" s="47"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="47"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B52" s="47"/>
+      <c r="C52" s="47"/>
+      <c r="D52" s="47"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B53" s="47"/>
+      <c r="C53" s="47"/>
+      <c r="D53" s="47"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B54" s="47"/>
+      <c r="C54" s="47"/>
+      <c r="D54" s="47"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B55" s="47"/>
+      <c r="C55" s="47"/>
+      <c r="D55" s="47"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B56" s="47"/>
+      <c r="C56" s="47"/>
+      <c r="D56" s="47"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B57" s="47"/>
+      <c r="C57" s="47"/>
+      <c r="D57" s="47"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B58" s="47"/>
+      <c r="C58" s="47"/>
+      <c r="D58" s="47"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B59" s="47"/>
+      <c r="C59" s="47"/>
+      <c r="D59" s="47"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B60" s="47"/>
+      <c r="C60" s="47"/>
+      <c r="D60" s="47"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B61" s="47"/>
+      <c r="C61" s="47"/>
+      <c r="D61" s="47"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B62" s="48"/>
+      <c r="C62" s="48"/>
+      <c r="D62" s="48"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B63" s="51"/>
+      <c r="C63" s="51"/>
+      <c r="D63" s="51"/>
+    </row>
+    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C64" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="D64" s="46" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A65" s="4"/>
+      <c r="B65" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C65" s="47"/>
+      <c r="D65" s="47"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="4"/>
+      <c r="B66" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C66" s="47"/>
+      <c r="D66" s="47"/>
+    </row>
+    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="4"/>
+      <c r="B67" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="C67" s="47"/>
+      <c r="D67" s="47"/>
+    </row>
+    <row r="68" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A68" s="4"/>
+      <c r="B68" s="47"/>
+      <c r="C68" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D68" s="21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="4"/>
+      <c r="B69" s="47"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="4"/>
+      <c r="B70" s="48"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="4"/>
+      <c r="B71" s="51"/>
+      <c r="C71" s="51"/>
+      <c r="D71" s="51"/>
+    </row>
+    <row r="72" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B72" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="C72" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="D72" s="46" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="4"/>
+      <c r="B73" s="47"/>
+      <c r="C73" s="47"/>
+      <c r="D73" s="47"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="4"/>
+      <c r="B74" s="47"/>
+      <c r="C74" s="47"/>
+      <c r="D74" s="47"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="4"/>
+      <c r="B75" s="47"/>
+      <c r="C75" s="47"/>
+      <c r="D75" s="47"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="4"/>
+      <c r="B76" s="47"/>
+      <c r="C76" s="47"/>
+      <c r="D76" s="47"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="4"/>
+      <c r="B77" s="47"/>
+      <c r="C77" s="47"/>
+      <c r="D77" s="47"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="4"/>
+      <c r="B78" s="48"/>
+      <c r="C78" s="48"/>
+      <c r="D78" s="48"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="4"/>
+      <c r="B79" s="51"/>
+      <c r="C79" s="51"/>
+      <c r="D79" s="51"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B81" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="C81" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="D81" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="H27" s="12"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="18"/>
-    </row>
-    <row r="28" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="19"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="18"/>
-    </row>
-    <row r="30" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="22"/>
-      <c r="C30" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="H30" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="I30" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="H36" s="12"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="18"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C37" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="D37" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="H37" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="I37" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="27"/>
-      <c r="O37" s="21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="48"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="28"/>
-      <c r="L38" s="28"/>
-      <c r="M38" s="28"/>
-      <c r="N38" s="29"/>
-      <c r="O38" s="18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="48"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="28"/>
-      <c r="M39" s="28"/>
-      <c r="N39" s="29"/>
-      <c r="O39" s="18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="48"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="28"/>
-      <c r="L40" s="28"/>
-      <c r="M40" s="28"/>
-      <c r="N40" s="29"/>
-      <c r="O40" s="18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="48"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="28"/>
-      <c r="L41" s="28"/>
-      <c r="M41" s="28"/>
-      <c r="N41" s="29"/>
-      <c r="O41" s="18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="48"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30"/>
-      <c r="M42" s="30"/>
-      <c r="N42" s="31"/>
-      <c r="O42" s="19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="48"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="48"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B45" s="24"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="48"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="48"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="48"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="48"/>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="48"/>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="48"/>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B51" s="24"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="48"/>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="48"/>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B53" s="24"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="48"/>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B54" s="24"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="48"/>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B55" s="24"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="48"/>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B56" s="24"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="48"/>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B57" s="24"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="48"/>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B58" s="24"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="48"/>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B59" s="24"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="48"/>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B60" s="24"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="48"/>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B61" s="24"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="48"/>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="48"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="5"/>
+      <c r="B82" s="47"/>
+      <c r="C82" s="47"/>
+      <c r="D82" s="47"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="4"/>
+      <c r="B83" s="47"/>
+      <c r="C83" s="47"/>
+      <c r="D83" s="47"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B84" s="47"/>
+      <c r="C84" s="47"/>
+      <c r="D84" s="47"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B85" s="47"/>
+      <c r="C85" s="47"/>
+      <c r="D85" s="47"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B86" s="47"/>
+      <c r="C86" s="47"/>
+      <c r="D86" s="47"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B87" s="47"/>
+      <c r="C87" s="47"/>
+      <c r="D87" s="47"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B88" s="47"/>
+      <c r="C88" s="47"/>
+      <c r="D88" s="47"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B89" s="47"/>
+      <c r="C89" s="47"/>
+      <c r="D89" s="47"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B90" s="47"/>
+      <c r="C90" s="47"/>
+      <c r="D90" s="47"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B91" s="47"/>
+      <c r="C91" s="47"/>
+      <c r="D91" s="47"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B92" s="47"/>
+      <c r="C92" s="47"/>
+      <c r="D92" s="47"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B93" s="47"/>
+      <c r="C93" s="47"/>
+      <c r="D93" s="47"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B94" s="47"/>
+      <c r="C94" s="47"/>
+      <c r="D94" s="47"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B95" s="47"/>
+      <c r="C95" s="47"/>
+      <c r="D95" s="47"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B96" s="47"/>
+      <c r="C96" s="47"/>
+      <c r="D96" s="47"/>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B97" s="47"/>
+      <c r="C97" s="47"/>
+      <c r="D97" s="47"/>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B98" s="47"/>
+      <c r="C98" s="47"/>
+      <c r="D98" s="47"/>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B99" s="47"/>
+      <c r="C99" s="47"/>
+      <c r="D99" s="47"/>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B100" s="47"/>
+      <c r="C100" s="47"/>
+      <c r="D100" s="47"/>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B101" s="47"/>
+      <c r="C101" s="47"/>
+      <c r="D101" s="47"/>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B102" s="47"/>
+      <c r="C102" s="47"/>
+      <c r="D102" s="47"/>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B103" s="47"/>
+      <c r="C103" s="47"/>
+      <c r="D103" s="47"/>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B104" s="47"/>
+      <c r="C104" s="47"/>
+      <c r="D104" s="47"/>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B105" s="47"/>
+      <c r="C105" s="47"/>
+      <c r="D105" s="47"/>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B106" s="48"/>
+      <c r="C106" s="48"/>
+      <c r="D106" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="D30:D35"/>
-    <mergeCell ref="D37:D62"/>
-    <mergeCell ref="I30:N35"/>
-    <mergeCell ref="I37:N42"/>
-    <mergeCell ref="I20:N28"/>
+  <mergeCells count="29">
+    <mergeCell ref="B81:B106"/>
+    <mergeCell ref="C81:C106"/>
+    <mergeCell ref="D81:D106"/>
+    <mergeCell ref="D27:D32"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="B72:B78"/>
+    <mergeCell ref="C72:C78"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="D72:D78"/>
+    <mergeCell ref="D64:D67"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B37:B62"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="C30:C35"/>
+    <mergeCell ref="C37:C62"/>
     <mergeCell ref="I2:N2"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="B24:B25"/>
@@ -1841,13 +2318,10 @@
     <mergeCell ref="I3:N10"/>
     <mergeCell ref="I12:N18"/>
     <mergeCell ref="D22:D26"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B37:B62"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="C25:C29"/>
-    <mergeCell ref="C30:C35"/>
-    <mergeCell ref="C37:C62"/>
+    <mergeCell ref="D37:D62"/>
+    <mergeCell ref="I30:N35"/>
+    <mergeCell ref="I37:N42"/>
+    <mergeCell ref="I20:N28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/excel_PCA_analysis/factor_loadings_big5.xlsx
+++ b/excel_PCA_analysis/factor_loadings_big5.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/selinimmel/Desktop/Hult/Boston/Semester II/Machine Learning/assignments/A2_team project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/selinimmel/Desktop/Hult/Boston/Semester II/Machine Learning/assignments/A2_team project/factor loadings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC690E9-9997-D24D-AE7A-7CDD39701330}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F628BB8C-EEAC-DF4B-8B9F-96CBF35A9756}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Personas" sheetId="1" r:id="rId1"/>
+    <sheet name="Clusters" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="148">
   <si>
     <t>Extroversion</t>
   </si>
@@ -335,13 +336,142 @@
   </si>
   <si>
     <t>Volunteering with friends</t>
+  </si>
+  <si>
+    <t>Clusters</t>
+  </si>
+  <si>
+    <t>Team Leader (-ve)</t>
+  </si>
+  <si>
+    <t>Networker</t>
+  </si>
+  <si>
+    <t>Unifier (-ve)</t>
+  </si>
+  <si>
+    <t>Growth Mindset (-ve)</t>
+  </si>
+  <si>
+    <t>Follower</t>
+  </si>
+  <si>
+    <t>0.72</t>
+  </si>
+  <si>
+    <t>-0.11</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>0.78</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>-0.55</t>
+  </si>
+  <si>
+    <t>0.10</t>
+  </si>
+  <si>
+    <t>-1.03</t>
+  </si>
+  <si>
+    <t>-0.91</t>
+  </si>
+  <si>
+    <t>0.49</t>
+  </si>
+  <si>
+    <t>-0.79</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>-0.61</t>
+  </si>
+  <si>
+    <t>-0.63</t>
+  </si>
+  <si>
+    <t>Cluster name</t>
+  </si>
+  <si>
+    <t>Strong Loadings</t>
+  </si>
+  <si>
+    <t>This means</t>
+  </si>
+  <si>
+    <t>- they are no team leader</t>
+  </si>
+  <si>
+    <t>- they have no growth mindet</t>
+  </si>
+  <si>
+    <t>- the next strongest loading is follower</t>
+  </si>
+  <si>
+    <t>What we can do to support them</t>
+  </si>
+  <si>
+    <t>Seeing their strong loading of Team Leader (-ve) and their tendencies towards a fixed mindset, they do not usually make their own decision. It is easier for them to follow and take the pre-made opinion and recommendation as their own. This means that they are easily influenced and will be a good target for advertising.</t>
+  </si>
+  <si>
+    <t>In order to support them we must make the decision to choose Apple as easy as possible. Ads with strong personalities will speak to these customers. Influencer marketing with people that have well-known and -proven knowledge in the technological sphere. All this will make it easy for this cluster to follow the recommendations they hear and buy the Apple Laptop.</t>
+  </si>
+  <si>
+    <t>Growth Minset (-ve)</t>
+  </si>
+  <si>
+    <t>- they are extremely strong unifiers (value &gt; 1!)</t>
+  </si>
+  <si>
+    <t>- they also have a very strong growth mindset, seeking to optimise</t>
+  </si>
+  <si>
+    <t>Their extemely high loading of unifiers means that this cluster has strong emotional stability, meaning they will not easily be influenced by other peoples thoughts and opinions. While they do gather all information and facts that they can on their choices, they will not be swayed by a celebrity recommendation or similar. As they also have a growth mindset, they will be looking for products that can support quick and sudden change, handle different situations, and be very agile.</t>
+  </si>
+  <si>
+    <t>To support this cluster, we should supply many facts and side-by-side comparisons, showing Apple's superiority. They cut through the glossy image. In order to win this cluster as a consumer, we should offer informational resources and make ourselves easily available for question sessions.</t>
+  </si>
+  <si>
+    <t>- yet, not strong unifiers, so they need help when it gets stressful</t>
+  </si>
+  <si>
+    <t>- they are very strong team leaders, good for long projects</t>
+  </si>
+  <si>
+    <t>Objective Observers</t>
+  </si>
+  <si>
+    <t>Influencer Marketing  / Authority Seekers</t>
+  </si>
+  <si>
+    <t>(Follower)</t>
+  </si>
+  <si>
+    <t>- they are no followers</t>
+  </si>
+  <si>
+    <t>This is a cluster that is very sure of itself and their accomplishments. They are detail- and goal-oriented and will not easily falter from their chosen path. They need a product that can handle many things at once. At the same time, they are not very people-oriented, more systems-oriented. This means that their tech of choice must be compatible with many other accessories and applications that can make their life easier. They must work on their people-skills so they need a laptop that makes this as easy as possible.</t>
+  </si>
+  <si>
+    <t>Show them all the accessories that come with apple and the integratedness between laptops and all other apple products - really emphasise this. Show how apple can connect you with other people to spark their interest, but don't over-do it as it can be intimidating. This cluster needs to be convinced, but once there will be a loyal customer that can bring other 'uncertains' over to choose Apple as well.</t>
+  </si>
+  <si>
+    <t>Accessory  &amp; Integration Enthusiasts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,8 +495,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -389,6 +547,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFDA"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -573,7 +743,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -612,81 +782,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -702,14 +797,162 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1057,8 +1300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:T106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView zoomScale="107" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1095,25 +1338,25 @@
       <c r="H2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="37" t="s">
+      <c r="I2" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="38"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="44"/>
       <c r="O2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="49" t="s">
+      <c r="P2" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="R2" s="49"/>
-      <c r="S2" s="53" t="s">
+      <c r="R2" s="24"/>
+      <c r="S2" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="T2" s="54" t="s">
+      <c r="T2" s="29" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1139,14 +1382,14 @@
       <c r="H3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="43" t="s">
+      <c r="I3" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="26"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="47"/>
       <c r="O3" s="19" t="s">
         <v>46</v>
       </c>
@@ -1156,10 +1399,10 @@
       <c r="R3" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="S3" s="52" t="s">
+      <c r="S3" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="T3" s="54" t="s">
+      <c r="T3" s="29" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1183,21 +1426,21 @@
         <v>-0.26154438357802118</v>
       </c>
       <c r="H4" s="10"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="28"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="50"/>
       <c r="O4" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="P4" s="50" t="s">
+      <c r="P4" s="25" t="s">
         <v>83</v>
       </c>
       <c r="R4" s="13"/>
       <c r="S4" s="13"/>
-      <c r="T4" s="55" t="s">
+      <c r="T4" s="30" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1211,7 +1454,7 @@
       <c r="C5" s="2">
         <v>0.14260614393902971</v>
       </c>
-      <c r="D5" s="59">
+      <c r="D5" s="34">
         <v>0.28245718234571998</v>
       </c>
       <c r="E5" s="7">
@@ -1221,16 +1464,16 @@
         <v>0.41811116193505649</v>
       </c>
       <c r="H5" s="10"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="28"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="50"/>
       <c r="O5" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="P5" s="50" t="s">
+      <c r="P5" s="25" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1254,12 +1497,12 @@
         <v>-0.72126274628008991</v>
       </c>
       <c r="H6" s="10"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="28"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="50"/>
       <c r="O6" s="16" t="s">
         <v>22</v>
       </c>
@@ -1285,12 +1528,12 @@
         <v>0.35921146914278701</v>
       </c>
       <c r="H7" s="10"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="28"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="50"/>
       <c r="O7" s="16" t="s">
         <v>23</v>
       </c>
@@ -1298,12 +1541,12 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="H8" s="10"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="28"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="50"/>
       <c r="O8" s="16" t="s">
         <v>24</v>
       </c>
@@ -1311,12 +1554,12 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="H9" s="10"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="28"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="50"/>
       <c r="O9" s="16"/>
       <c r="P9" s="16"/>
     </row>
@@ -1324,18 +1567,18 @@
       <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="42"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="39"/>
       <c r="H10" s="13"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="30"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="53"/>
       <c r="O10" s="17"/>
       <c r="P10" s="17"/>
     </row>
@@ -1352,27 +1595,27 @@
       <c r="P11" s="16"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="57" t="s">
+      <c r="C12" s="33"/>
+      <c r="D12" s="32" t="s">
         <v>10</v>
       </c>
       <c r="H12" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="I12" s="43" t="s">
+      <c r="I12" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="26"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="47"/>
       <c r="O12" s="19" t="s">
         <v>27</v>
       </c>
@@ -1394,28 +1637,28 @@
         <v>71</v>
       </c>
       <c r="H13" s="10"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="28"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="50"/>
       <c r="O13" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="P13" s="50" t="s">
+      <c r="P13" s="25" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="H14" s="10"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="28"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="50"/>
       <c r="O14" s="16" t="s">
         <v>29</v>
       </c>
@@ -1435,12 +1678,12 @@
         <v>0</v>
       </c>
       <c r="H15" s="10"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="28"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="50"/>
       <c r="O15" s="16" t="s">
         <v>30</v>
       </c>
@@ -1455,12 +1698,12 @@
         <v>1</v>
       </c>
       <c r="H16" s="10"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="28"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="50"/>
       <c r="O16" s="16" t="s">
         <v>31</v>
       </c>
@@ -1472,12 +1715,12 @@
         <v>4</v>
       </c>
       <c r="H17" s="10"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="28"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="50"/>
       <c r="O17" s="16" t="s">
         <v>32</v>
       </c>
@@ -1489,12 +1732,12 @@
         <v>14</v>
       </c>
       <c r="H18" s="13"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="30"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="53"/>
       <c r="O18" s="17" t="s">
         <v>33</v>
       </c>
@@ -1528,14 +1771,14 @@
       <c r="H20" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="I20" s="60" t="s">
+      <c r="I20" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="32"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="56"/>
       <c r="O20" s="19" t="s">
         <v>34</v>
       </c>
@@ -1544,12 +1787,12 @@
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="H21" s="10"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="34"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="59"/>
       <c r="O21" s="16" t="s">
         <v>37</v>
       </c>
@@ -1559,131 +1802,131 @@
       <c r="A22" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="36" t="s">
         <v>68</v>
       </c>
       <c r="H22" s="10"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="34"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="59"/>
       <c r="O22" s="16" t="s">
         <v>38</v>
       </c>
       <c r="P22" s="16"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B23" s="39"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="34"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="59"/>
       <c r="O23" s="16" t="s">
         <v>39</v>
       </c>
       <c r="P23" s="16"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="34"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="59"/>
       <c r="O24" s="16" t="s">
         <v>35</v>
       </c>
       <c r="P24" s="16"/>
     </row>
     <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="39"/>
-      <c r="C25" s="24" t="s">
+      <c r="B25" s="35"/>
+      <c r="C25" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="24"/>
+      <c r="D25" s="36"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="34"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="59"/>
       <c r="O25" s="16" t="s">
         <v>36</v>
       </c>
       <c r="P25" s="16"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="34"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="59"/>
       <c r="O26" s="16"/>
       <c r="P26" s="16"/>
     </row>
     <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24" t="s">
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36" t="s">
         <v>69</v>
       </c>
       <c r="H27" s="10"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="34"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="59"/>
       <c r="O27" s="16"/>
       <c r="P27" s="16"/>
     </row>
     <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
       <c r="H28" s="13"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="36"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="61"/>
+      <c r="N28" s="62"/>
       <c r="O28" s="17"/>
       <c r="P28" s="17"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
       <c r="H29" s="10"/>
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
@@ -1695,100 +1938,100 @@
       <c r="P29" s="16"/>
     </row>
     <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="24"/>
-      <c r="C30" s="24" t="s">
+      <c r="B30" s="36"/>
+      <c r="C30" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="24"/>
+      <c r="D30" s="36"/>
       <c r="H30" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="I30" s="43" t="s">
+      <c r="I30" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="26"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="47"/>
       <c r="O30" s="19" t="s">
         <v>40</v>
       </c>
       <c r="P30" s="19"/>
     </row>
     <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
       <c r="H31" s="9"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="28"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="50"/>
       <c r="O31" s="16" t="s">
         <v>45</v>
       </c>
       <c r="P31" s="16"/>
     </row>
     <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
       <c r="H32" s="10"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27"/>
-      <c r="N32" s="28"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="50"/>
       <c r="O32" s="16" t="s">
         <v>41</v>
       </c>
       <c r="P32" s="16"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
       <c r="H33" s="10"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="28"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="50"/>
       <c r="O33" s="16" t="s">
         <v>42</v>
       </c>
       <c r="P33" s="16"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
       <c r="H34" s="10"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27"/>
-      <c r="N34" s="28"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="50"/>
       <c r="O34" s="16" t="s">
         <v>43</v>
       </c>
       <c r="P34" s="16"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C35" s="24"/>
+      <c r="C35" s="36"/>
       <c r="H35" s="13"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="30"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="52"/>
+      <c r="N35" s="53"/>
       <c r="O35" s="17" t="s">
         <v>44</v>
       </c>
@@ -1809,26 +2052,26 @@
       <c r="A37" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B37" s="46" t="s">
+      <c r="B37" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="46" t="s">
+      <c r="C37" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="D37" s="46" t="s">
+      <c r="D37" s="40" t="s">
         <v>100</v>
       </c>
       <c r="H37" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="I37" s="43" t="s">
+      <c r="I37" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="25"/>
-      <c r="N37" s="26"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="46"/>
+      <c r="M37" s="46"/>
+      <c r="N37" s="47"/>
       <c r="O37" s="19" t="s">
         <v>52</v>
       </c>
@@ -1837,20 +2080,20 @@
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B38" s="47"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="47"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
       <c r="H38" s="10"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="27"/>
-      <c r="N38" s="28"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="49"/>
+      <c r="M38" s="49"/>
+      <c r="N38" s="50"/>
       <c r="O38" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="P38" s="50" t="s">
+      <c r="P38" s="25" t="s">
         <v>79</v>
       </c>
       <c r="Q38" t="s">
@@ -1858,175 +2101,175 @@
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B39" s="47"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
       <c r="H39" s="10"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="27"/>
-      <c r="N39" s="28"/>
+      <c r="I39" s="48"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="49"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="49"/>
+      <c r="N39" s="50"/>
       <c r="O39" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="P39" s="50" t="s">
+      <c r="P39" s="25" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B40" s="47"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
       <c r="H40" s="10"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="27"/>
-      <c r="M40" s="27"/>
-      <c r="N40" s="28"/>
+      <c r="I40" s="48"/>
+      <c r="J40" s="49"/>
+      <c r="K40" s="49"/>
+      <c r="L40" s="49"/>
+      <c r="M40" s="49"/>
+      <c r="N40" s="50"/>
       <c r="O40" s="16" t="s">
         <v>51</v>
       </c>
       <c r="P40" s="16"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B41" s="47"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="47"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
       <c r="H41" s="10"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="27"/>
-      <c r="M41" s="27"/>
-      <c r="N41" s="28"/>
+      <c r="I41" s="48"/>
+      <c r="J41" s="49"/>
+      <c r="K41" s="49"/>
+      <c r="L41" s="49"/>
+      <c r="M41" s="49"/>
+      <c r="N41" s="50"/>
       <c r="O41" s="16" t="s">
         <v>53</v>
       </c>
       <c r="P41" s="16"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B42" s="47"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="41"/>
       <c r="H42" s="13"/>
-      <c r="I42" s="45"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="29"/>
-      <c r="M42" s="29"/>
-      <c r="N42" s="30"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="52"/>
+      <c r="L42" s="52"/>
+      <c r="M42" s="52"/>
+      <c r="N42" s="53"/>
       <c r="O42" s="17" t="s">
         <v>54</v>
       </c>
       <c r="P42" s="17"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B43" s="47"/>
-      <c r="C43" s="47"/>
-      <c r="D43" s="47"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B44" s="47"/>
-      <c r="C44" s="47"/>
-      <c r="D44" s="47"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="41"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B45" s="47"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="47"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B46" s="47"/>
-      <c r="C46" s="47"/>
-      <c r="D46" s="47"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B47" s="47"/>
-      <c r="C47" s="47"/>
-      <c r="D47" s="47"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="41"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B48" s="47"/>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B49" s="47"/>
-      <c r="C49" s="47"/>
-      <c r="D49" s="47"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="41"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B50" s="47"/>
-      <c r="C50" s="47"/>
-      <c r="D50" s="47"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="41"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B51" s="47"/>
-      <c r="C51" s="47"/>
-      <c r="D51" s="47"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="41"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B52" s="47"/>
-      <c r="C52" s="47"/>
-      <c r="D52" s="47"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="41"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B53" s="47"/>
-      <c r="C53" s="47"/>
-      <c r="D53" s="47"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="41"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B54" s="47"/>
-      <c r="C54" s="47"/>
-      <c r="D54" s="47"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="41"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B55" s="47"/>
-      <c r="C55" s="47"/>
-      <c r="D55" s="47"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="41"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B56" s="47"/>
-      <c r="C56" s="47"/>
-      <c r="D56" s="47"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="41"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B57" s="47"/>
-      <c r="C57" s="47"/>
-      <c r="D57" s="47"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="41"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B58" s="47"/>
-      <c r="C58" s="47"/>
-      <c r="D58" s="47"/>
+      <c r="B58" s="41"/>
+      <c r="C58" s="41"/>
+      <c r="D58" s="41"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B59" s="47"/>
-      <c r="C59" s="47"/>
-      <c r="D59" s="47"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="41"/>
+      <c r="D59" s="41"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B60" s="47"/>
-      <c r="C60" s="47"/>
-      <c r="D60" s="47"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="41"/>
+      <c r="D60" s="41"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B61" s="47"/>
-      <c r="C61" s="47"/>
-      <c r="D61" s="47"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="41"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B62" s="48"/>
-      <c r="C62" s="48"/>
-      <c r="D62" s="48"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="42"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B63" s="51"/>
-      <c r="C63" s="51"/>
-      <c r="D63" s="51"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
     </row>
     <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
@@ -2035,10 +2278,10 @@
       <c r="B64" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="C64" s="46" t="s">
+      <c r="C64" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="D64" s="46" t="s">
+      <c r="D64" s="40" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2047,28 +2290,28 @@
       <c r="B65" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="C65" s="47"/>
-      <c r="D65" s="47"/>
+      <c r="C65" s="41"/>
+      <c r="D65" s="41"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
       <c r="B66" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="C66" s="47"/>
-      <c r="D66" s="47"/>
+      <c r="C66" s="41"/>
+      <c r="D66" s="41"/>
     </row>
     <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
-      <c r="B67" s="47" t="s">
+      <c r="B67" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="C67" s="47"/>
-      <c r="D67" s="47"/>
+      <c r="C67" s="41"/>
+      <c r="D67" s="41"/>
     </row>
     <row r="68" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
-      <c r="B68" s="47"/>
+      <c r="B68" s="41"/>
       <c r="C68" s="21" t="s">
         <v>99</v>
       </c>
@@ -2078,218 +2321,218 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
-      <c r="B69" s="47"/>
+      <c r="B69" s="41"/>
       <c r="C69" s="21"/>
       <c r="D69" s="21"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
-      <c r="B70" s="48"/>
+      <c r="B70" s="42"/>
       <c r="C70" s="22"/>
       <c r="D70" s="22"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
-      <c r="B71" s="51"/>
-      <c r="C71" s="51"/>
-      <c r="D71" s="51"/>
+      <c r="B71" s="26"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26"/>
     </row>
     <row r="72" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B72" s="46" t="s">
+      <c r="B72" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="C72" s="46" t="s">
+      <c r="C72" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="D72" s="46" t="s">
+      <c r="D72" s="40" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
-      <c r="B73" s="47"/>
-      <c r="C73" s="47"/>
-      <c r="D73" s="47"/>
+      <c r="B73" s="41"/>
+      <c r="C73" s="41"/>
+      <c r="D73" s="41"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
-      <c r="B74" s="47"/>
-      <c r="C74" s="47"/>
-      <c r="D74" s="47"/>
+      <c r="B74" s="41"/>
+      <c r="C74" s="41"/>
+      <c r="D74" s="41"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
-      <c r="B75" s="47"/>
-      <c r="C75" s="47"/>
-      <c r="D75" s="47"/>
+      <c r="B75" s="41"/>
+      <c r="C75" s="41"/>
+      <c r="D75" s="41"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
-      <c r="B76" s="47"/>
-      <c r="C76" s="47"/>
-      <c r="D76" s="47"/>
+      <c r="B76" s="41"/>
+      <c r="C76" s="41"/>
+      <c r="D76" s="41"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="4"/>
-      <c r="B77" s="47"/>
-      <c r="C77" s="47"/>
-      <c r="D77" s="47"/>
+      <c r="B77" s="41"/>
+      <c r="C77" s="41"/>
+      <c r="D77" s="41"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
-      <c r="B78" s="48"/>
-      <c r="C78" s="48"/>
-      <c r="D78" s="48"/>
+      <c r="B78" s="42"/>
+      <c r="C78" s="42"/>
+      <c r="D78" s="42"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
-      <c r="B79" s="51"/>
-      <c r="C79" s="51"/>
-      <c r="D79" s="51"/>
+      <c r="B79" s="26"/>
+      <c r="C79" s="26"/>
+      <c r="D79" s="26"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B81" s="46" t="s">
+      <c r="B81" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="C81" s="46" t="s">
+      <c r="C81" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="D81" s="46" t="s">
+      <c r="D81" s="40" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="5"/>
-      <c r="B82" s="47"/>
-      <c r="C82" s="47"/>
-      <c r="D82" s="47"/>
+      <c r="B82" s="41"/>
+      <c r="C82" s="41"/>
+      <c r="D82" s="41"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
-      <c r="B83" s="47"/>
-      <c r="C83" s="47"/>
-      <c r="D83" s="47"/>
+      <c r="B83" s="41"/>
+      <c r="C83" s="41"/>
+      <c r="D83" s="41"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B84" s="47"/>
-      <c r="C84" s="47"/>
-      <c r="D84" s="47"/>
+      <c r="B84" s="41"/>
+      <c r="C84" s="41"/>
+      <c r="D84" s="41"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B85" s="47"/>
-      <c r="C85" s="47"/>
-      <c r="D85" s="47"/>
+      <c r="B85" s="41"/>
+      <c r="C85" s="41"/>
+      <c r="D85" s="41"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B86" s="47"/>
-      <c r="C86" s="47"/>
-      <c r="D86" s="47"/>
+      <c r="B86" s="41"/>
+      <c r="C86" s="41"/>
+      <c r="D86" s="41"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B87" s="47"/>
-      <c r="C87" s="47"/>
-      <c r="D87" s="47"/>
+      <c r="B87" s="41"/>
+      <c r="C87" s="41"/>
+      <c r="D87" s="41"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B88" s="47"/>
-      <c r="C88" s="47"/>
-      <c r="D88" s="47"/>
+      <c r="B88" s="41"/>
+      <c r="C88" s="41"/>
+      <c r="D88" s="41"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B89" s="47"/>
-      <c r="C89" s="47"/>
-      <c r="D89" s="47"/>
+      <c r="B89" s="41"/>
+      <c r="C89" s="41"/>
+      <c r="D89" s="41"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B90" s="47"/>
-      <c r="C90" s="47"/>
-      <c r="D90" s="47"/>
+      <c r="B90" s="41"/>
+      <c r="C90" s="41"/>
+      <c r="D90" s="41"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B91" s="47"/>
-      <c r="C91" s="47"/>
-      <c r="D91" s="47"/>
+      <c r="B91" s="41"/>
+      <c r="C91" s="41"/>
+      <c r="D91" s="41"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B92" s="47"/>
-      <c r="C92" s="47"/>
-      <c r="D92" s="47"/>
+      <c r="B92" s="41"/>
+      <c r="C92" s="41"/>
+      <c r="D92" s="41"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B93" s="47"/>
-      <c r="C93" s="47"/>
-      <c r="D93" s="47"/>
+      <c r="B93" s="41"/>
+      <c r="C93" s="41"/>
+      <c r="D93" s="41"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B94" s="47"/>
-      <c r="C94" s="47"/>
-      <c r="D94" s="47"/>
+      <c r="B94" s="41"/>
+      <c r="C94" s="41"/>
+      <c r="D94" s="41"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B95" s="47"/>
-      <c r="C95" s="47"/>
-      <c r="D95" s="47"/>
+      <c r="B95" s="41"/>
+      <c r="C95" s="41"/>
+      <c r="D95" s="41"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B96" s="47"/>
-      <c r="C96" s="47"/>
-      <c r="D96" s="47"/>
+      <c r="B96" s="41"/>
+      <c r="C96" s="41"/>
+      <c r="D96" s="41"/>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B97" s="47"/>
-      <c r="C97" s="47"/>
-      <c r="D97" s="47"/>
+      <c r="B97" s="41"/>
+      <c r="C97" s="41"/>
+      <c r="D97" s="41"/>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B98" s="47"/>
-      <c r="C98" s="47"/>
-      <c r="D98" s="47"/>
+      <c r="B98" s="41"/>
+      <c r="C98" s="41"/>
+      <c r="D98" s="41"/>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B99" s="47"/>
-      <c r="C99" s="47"/>
-      <c r="D99" s="47"/>
+      <c r="B99" s="41"/>
+      <c r="C99" s="41"/>
+      <c r="D99" s="41"/>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B100" s="47"/>
-      <c r="C100" s="47"/>
-      <c r="D100" s="47"/>
+      <c r="B100" s="41"/>
+      <c r="C100" s="41"/>
+      <c r="D100" s="41"/>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B101" s="47"/>
-      <c r="C101" s="47"/>
-      <c r="D101" s="47"/>
+      <c r="B101" s="41"/>
+      <c r="C101" s="41"/>
+      <c r="D101" s="41"/>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B102" s="47"/>
-      <c r="C102" s="47"/>
-      <c r="D102" s="47"/>
+      <c r="B102" s="41"/>
+      <c r="C102" s="41"/>
+      <c r="D102" s="41"/>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B103" s="47"/>
-      <c r="C103" s="47"/>
-      <c r="D103" s="47"/>
+      <c r="B103" s="41"/>
+      <c r="C103" s="41"/>
+      <c r="D103" s="41"/>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B104" s="47"/>
-      <c r="C104" s="47"/>
-      <c r="D104" s="47"/>
+      <c r="B104" s="41"/>
+      <c r="C104" s="41"/>
+      <c r="D104" s="41"/>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B105" s="47"/>
-      <c r="C105" s="47"/>
-      <c r="D105" s="47"/>
+      <c r="B105" s="41"/>
+      <c r="C105" s="41"/>
+      <c r="D105" s="41"/>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B106" s="48"/>
-      <c r="C106" s="48"/>
-      <c r="D106" s="48"/>
+      <c r="B106" s="42"/>
+      <c r="C106" s="42"/>
+      <c r="D106" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -2305,23 +2548,553 @@
     <mergeCell ref="D64:D67"/>
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="B37:B62"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="C25:C29"/>
-    <mergeCell ref="C30:C35"/>
     <mergeCell ref="C37:C62"/>
     <mergeCell ref="I2:N2"/>
+    <mergeCell ref="I3:N10"/>
+    <mergeCell ref="I12:N18"/>
+    <mergeCell ref="D37:D62"/>
+    <mergeCell ref="I30:N35"/>
+    <mergeCell ref="I37:N42"/>
+    <mergeCell ref="I20:N28"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="B28:B31"/>
     <mergeCell ref="B10:D10"/>
-    <mergeCell ref="I3:N10"/>
-    <mergeCell ref="I12:N18"/>
     <mergeCell ref="D22:D26"/>
-    <mergeCell ref="D37:D62"/>
-    <mergeCell ref="I30:N35"/>
-    <mergeCell ref="I37:N42"/>
-    <mergeCell ref="I20:N28"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="C30:C35"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3BB6B79-DE9A-F547-8673-50E41AC9F730}">
+  <dimension ref="A3:F59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" customWidth="1"/>
+    <col min="3" max="3" width="28.83203125" customWidth="1"/>
+    <col min="4" max="4" width="29.83203125" customWidth="1"/>
+    <col min="5" max="6" width="20.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="63" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" s="65" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="66">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="68" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="68" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4" s="69" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="66">
+        <v>1</v>
+      </c>
+      <c r="B5" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="84" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="F5" s="69" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="70">
+        <v>2</v>
+      </c>
+      <c r="B6" s="71" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" s="90" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="73"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+    </row>
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="73"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+    </row>
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="73"/>
+      <c r="B9" s="73">
+        <v>0</v>
+      </c>
+      <c r="C9" s="73">
+        <v>1</v>
+      </c>
+      <c r="D9" s="73">
+        <v>2</v>
+      </c>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+    </row>
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="75"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+    </row>
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="75" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" s="88" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11" s="74" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" s="74" t="s">
+        <v>147</v>
+      </c>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+    </row>
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="75"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+    </row>
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="75"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+    </row>
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="75" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" s="73" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="73" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="73" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+    </row>
+    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="75"/>
+      <c r="B15" s="73" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="73" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15" s="73" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" s="73"/>
+    </row>
+    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="75"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="E16" s="73"/>
+    </row>
+    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="75"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="75" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18" s="81" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="93" t="s">
+        <v>135</v>
+      </c>
+      <c r="D18" s="85" t="s">
+        <v>140</v>
+      </c>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+    </row>
+    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="75"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="75"/>
+      <c r="B20" s="82" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" s="87"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+    </row>
+    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="75"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="79" t="s">
+        <v>136</v>
+      </c>
+      <c r="D21" s="80" t="s">
+        <v>139</v>
+      </c>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="75"/>
+      <c r="B22" s="77" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" s="79"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+    </row>
+    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="73"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="94"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+    </row>
+    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="73"/>
+      <c r="B24" s="91"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="95" t="s">
+        <v>144</v>
+      </c>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+    </row>
+    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="75"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+    </row>
+    <row r="26" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="81" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26" s="81" t="s">
+        <v>137</v>
+      </c>
+      <c r="D26" s="76" t="s">
+        <v>145</v>
+      </c>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+    </row>
+    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="75"/>
+      <c r="B27" s="82"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+    </row>
+    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="73"/>
+      <c r="B28" s="82"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+    </row>
+    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="73"/>
+      <c r="B29" s="82"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+    </row>
+    <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="73"/>
+      <c r="B30" s="82"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+    </row>
+    <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="73"/>
+      <c r="B31" s="82"/>
+      <c r="C31" s="82"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="73"/>
+    </row>
+    <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="73"/>
+      <c r="B32" s="82"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
+    </row>
+    <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="73"/>
+      <c r="B33" s="82"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="73"/>
+    </row>
+    <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="73"/>
+      <c r="B34" s="82"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="73"/>
+    </row>
+    <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="73"/>
+      <c r="B35" s="82"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73"/>
+    </row>
+    <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="73"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="73"/>
+      <c r="F36" s="73"/>
+    </row>
+    <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B37" s="82"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="77"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="73"/>
+    </row>
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="82"/>
+      <c r="C38" s="82"/>
+      <c r="D38" s="77"/>
+    </row>
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="82"/>
+      <c r="C39" s="82"/>
+      <c r="D39" s="77"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B40" s="82"/>
+      <c r="C40" s="82"/>
+      <c r="D40" s="77"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B41" s="82"/>
+      <c r="C41" s="82"/>
+      <c r="D41" s="77"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B42" s="83"/>
+      <c r="C42" s="83"/>
+      <c r="D42" s="78"/>
+    </row>
+    <row r="44" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="B44" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="C44" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="D44" s="40" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B45" s="41"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="41"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B48" s="41"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B49" s="41"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="41"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B50" s="41"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="41"/>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B51" s="41"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="41"/>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B52" s="41"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="41"/>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B53" s="41"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="41"/>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B54" s="41"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="41"/>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B55" s="41"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="41"/>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B56" s="41"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="41"/>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B57" s="41"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="41"/>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B58" s="41"/>
+      <c r="C58" s="41"/>
+      <c r="D58" s="41"/>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B59" s="42"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D26:D42"/>
+    <mergeCell ref="D44:D59"/>
+    <mergeCell ref="B44:B59"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C26:C42"/>
+    <mergeCell ref="C44:C59"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B26:B42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/excel_PCA_analysis/factor_loadings_big5.xlsx
+++ b/excel_PCA_analysis/factor_loadings_big5.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/selinimmel/Desktop/Hult/Boston/Semester II/Machine Learning/assignments/A2_team project/factor loadings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F628BB8C-EEAC-DF4B-8B9F-96CBF35A9756}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E28ACC-AA09-A34A-8CB0-CD1AA8EAD8CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Personas" sheetId="1" r:id="rId1"/>
-    <sheet name="Clusters" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="105">
   <si>
     <t>Extroversion</t>
   </si>
@@ -336,142 +335,13 @@
   </si>
   <si>
     <t>Volunteering with friends</t>
-  </si>
-  <si>
-    <t>Clusters</t>
-  </si>
-  <si>
-    <t>Team Leader (-ve)</t>
-  </si>
-  <si>
-    <t>Networker</t>
-  </si>
-  <si>
-    <t>Unifier (-ve)</t>
-  </si>
-  <si>
-    <t>Growth Mindset (-ve)</t>
-  </si>
-  <si>
-    <t>Follower</t>
-  </si>
-  <si>
-    <t>0.72</t>
-  </si>
-  <si>
-    <t>-0.11</t>
-  </si>
-  <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>0.78</t>
-  </si>
-  <si>
-    <t>0.15</t>
-  </si>
-  <si>
-    <t>-0.55</t>
-  </si>
-  <si>
-    <t>0.10</t>
-  </si>
-  <si>
-    <t>-1.03</t>
-  </si>
-  <si>
-    <t>-0.91</t>
-  </si>
-  <si>
-    <t>0.49</t>
-  </si>
-  <si>
-    <t>-0.79</t>
-  </si>
-  <si>
-    <t>0.11</t>
-  </si>
-  <si>
-    <t>-0.61</t>
-  </si>
-  <si>
-    <t>-0.63</t>
-  </si>
-  <si>
-    <t>Cluster name</t>
-  </si>
-  <si>
-    <t>Strong Loadings</t>
-  </si>
-  <si>
-    <t>This means</t>
-  </si>
-  <si>
-    <t>- they are no team leader</t>
-  </si>
-  <si>
-    <t>- they have no growth mindet</t>
-  </si>
-  <si>
-    <t>- the next strongest loading is follower</t>
-  </si>
-  <si>
-    <t>What we can do to support them</t>
-  </si>
-  <si>
-    <t>Seeing their strong loading of Team Leader (-ve) and their tendencies towards a fixed mindset, they do not usually make their own decision. It is easier for them to follow and take the pre-made opinion and recommendation as their own. This means that they are easily influenced and will be a good target for advertising.</t>
-  </si>
-  <si>
-    <t>In order to support them we must make the decision to choose Apple as easy as possible. Ads with strong personalities will speak to these customers. Influencer marketing with people that have well-known and -proven knowledge in the technological sphere. All this will make it easy for this cluster to follow the recommendations they hear and buy the Apple Laptop.</t>
-  </si>
-  <si>
-    <t>Growth Minset (-ve)</t>
-  </si>
-  <si>
-    <t>- they are extremely strong unifiers (value &gt; 1!)</t>
-  </si>
-  <si>
-    <t>- they also have a very strong growth mindset, seeking to optimise</t>
-  </si>
-  <si>
-    <t>Their extemely high loading of unifiers means that this cluster has strong emotional stability, meaning they will not easily be influenced by other peoples thoughts and opinions. While they do gather all information and facts that they can on their choices, they will not be swayed by a celebrity recommendation or similar. As they also have a growth mindset, they will be looking for products that can support quick and sudden change, handle different situations, and be very agile.</t>
-  </si>
-  <si>
-    <t>To support this cluster, we should supply many facts and side-by-side comparisons, showing Apple's superiority. They cut through the glossy image. In order to win this cluster as a consumer, we should offer informational resources and make ourselves easily available for question sessions.</t>
-  </si>
-  <si>
-    <t>- yet, not strong unifiers, so they need help when it gets stressful</t>
-  </si>
-  <si>
-    <t>- they are very strong team leaders, good for long projects</t>
-  </si>
-  <si>
-    <t>Objective Observers</t>
-  </si>
-  <si>
-    <t>Influencer Marketing  / Authority Seekers</t>
-  </si>
-  <si>
-    <t>(Follower)</t>
-  </si>
-  <si>
-    <t>- they are no followers</t>
-  </si>
-  <si>
-    <t>This is a cluster that is very sure of itself and their accomplishments. They are detail- and goal-oriented and will not easily falter from their chosen path. They need a product that can handle many things at once. At the same time, they are not very people-oriented, more systems-oriented. This means that their tech of choice must be compatible with many other accessories and applications that can make their life easier. They must work on their people-skills so they need a laptop that makes this as easy as possible.</t>
-  </si>
-  <si>
-    <t>Show them all the accessories that come with apple and the integratedness between laptops and all other apple products - really emphasise this. Show how apple can connect you with other people to spark their interest, but don't over-do it as it can be intimidating. This cluster needs to be convinced, but once there will be a loyal customer that can bring other 'uncertains' over to choose Apple as well.</t>
-  </si>
-  <si>
-    <t>Accessory  &amp; Integration Enthusiasts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -495,36 +365,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -547,18 +389,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFDA"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -743,7 +573,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -812,6 +642,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -821,39 +684,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -880,79 +710,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1300,8 +1057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:T106"/>
   <sheetViews>
-    <sheetView zoomScale="107" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1338,14 +1095,14 @@
       <c r="H2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="43" t="s">
+      <c r="I2" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="44"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="41"/>
       <c r="O2" s="15" t="s">
         <v>26</v>
       </c>
@@ -1382,14 +1139,14 @@
       <c r="H3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="45" t="s">
+      <c r="I3" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="47"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="44"/>
       <c r="O3" s="19" t="s">
         <v>46</v>
       </c>
@@ -1426,12 +1183,12 @@
         <v>-0.26154438357802118</v>
       </c>
       <c r="H4" s="10"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="50"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="47"/>
       <c r="O4" s="16" t="s">
         <v>47</v>
       </c>
@@ -1464,12 +1221,12 @@
         <v>0.41811116193505649</v>
       </c>
       <c r="H5" s="10"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="50"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="47"/>
       <c r="O5" s="16" t="s">
         <v>48</v>
       </c>
@@ -1497,12 +1254,12 @@
         <v>-0.72126274628008991</v>
       </c>
       <c r="H6" s="10"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="50"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="47"/>
       <c r="O6" s="16" t="s">
         <v>22</v>
       </c>
@@ -1528,12 +1285,12 @@
         <v>0.35921146914278701</v>
       </c>
       <c r="H7" s="10"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="50"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="47"/>
       <c r="O7" s="16" t="s">
         <v>23</v>
       </c>
@@ -1541,12 +1298,12 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="H8" s="10"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="50"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="47"/>
       <c r="O8" s="16" t="s">
         <v>24</v>
       </c>
@@ -1554,12 +1311,12 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="H9" s="10"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="50"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="47"/>
       <c r="O9" s="16"/>
       <c r="P9" s="16"/>
     </row>
@@ -1573,12 +1330,12 @@
       <c r="C10" s="38"/>
       <c r="D10" s="39"/>
       <c r="H10" s="13"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="53"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="50"/>
       <c r="O10" s="17"/>
       <c r="P10" s="17"/>
     </row>
@@ -1608,14 +1365,14 @@
       <c r="H12" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="I12" s="45" t="s">
+      <c r="I12" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="47"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="44"/>
       <c r="O12" s="19" t="s">
         <v>27</v>
       </c>
@@ -1637,12 +1394,12 @@
         <v>71</v>
       </c>
       <c r="H13" s="10"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="50"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="47"/>
       <c r="O13" s="16" t="s">
         <v>28</v>
       </c>
@@ -1653,12 +1410,12 @@
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="H14" s="10"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="50"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="47"/>
       <c r="O14" s="16" t="s">
         <v>29</v>
       </c>
@@ -1678,12 +1435,12 @@
         <v>0</v>
       </c>
       <c r="H15" s="10"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="50"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="47"/>
       <c r="O15" s="16" t="s">
         <v>30</v>
       </c>
@@ -1698,12 +1455,12 @@
         <v>1</v>
       </c>
       <c r="H16" s="10"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="50"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="47"/>
       <c r="O16" s="16" t="s">
         <v>31</v>
       </c>
@@ -1715,12 +1472,12 @@
         <v>4</v>
       </c>
       <c r="H17" s="10"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="50"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="47"/>
       <c r="O17" s="16" t="s">
         <v>32</v>
       </c>
@@ -1732,12 +1489,12 @@
         <v>14</v>
       </c>
       <c r="H18" s="13"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="53"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="50"/>
       <c r="O18" s="17" t="s">
         <v>33</v>
       </c>
@@ -1946,14 +1703,14 @@
       <c r="H30" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="I30" s="45" t="s">
+      <c r="I30" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="J30" s="46"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="46"/>
-      <c r="M30" s="46"/>
-      <c r="N30" s="47"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="44"/>
       <c r="O30" s="19" t="s">
         <v>40</v>
       </c>
@@ -1964,12 +1721,12 @@
       <c r="C31" s="36"/>
       <c r="D31" s="36"/>
       <c r="H31" s="9"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="50"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="47"/>
       <c r="O31" s="16" t="s">
         <v>45</v>
       </c>
@@ -1982,12 +1739,12 @@
       <c r="C32" s="36"/>
       <c r="D32" s="36"/>
       <c r="H32" s="10"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="50"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="46"/>
+      <c r="N32" s="47"/>
       <c r="O32" s="16" t="s">
         <v>41</v>
       </c>
@@ -1997,12 +1754,12 @@
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
       <c r="H33" s="10"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="49"/>
-      <c r="L33" s="49"/>
-      <c r="M33" s="49"/>
-      <c r="N33" s="50"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="46"/>
+      <c r="N33" s="47"/>
       <c r="O33" s="16" t="s">
         <v>42</v>
       </c>
@@ -2012,12 +1769,12 @@
       <c r="B34" s="36"/>
       <c r="C34" s="36"/>
       <c r="H34" s="10"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="49"/>
-      <c r="L34" s="49"/>
-      <c r="M34" s="49"/>
-      <c r="N34" s="50"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="46"/>
+      <c r="M34" s="46"/>
+      <c r="N34" s="47"/>
       <c r="O34" s="16" t="s">
         <v>43</v>
       </c>
@@ -2026,12 +1783,12 @@
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C35" s="36"/>
       <c r="H35" s="13"/>
-      <c r="I35" s="51"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="52"/>
-      <c r="M35" s="52"/>
-      <c r="N35" s="53"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="50"/>
       <c r="O35" s="17" t="s">
         <v>44</v>
       </c>
@@ -2052,26 +1809,26 @@
       <c r="A37" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B37" s="40" t="s">
+      <c r="B37" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="40" t="s">
+      <c r="C37" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="D37" s="40" t="s">
+      <c r="D37" s="51" t="s">
         <v>100</v>
       </c>
       <c r="H37" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="I37" s="45" t="s">
+      <c r="I37" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="J37" s="46"/>
-      <c r="K37" s="46"/>
-      <c r="L37" s="46"/>
-      <c r="M37" s="46"/>
-      <c r="N37" s="47"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="43"/>
+      <c r="N37" s="44"/>
       <c r="O37" s="19" t="s">
         <v>52</v>
       </c>
@@ -2080,16 +1837,16 @@
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="52"/>
       <c r="H38" s="10"/>
-      <c r="I38" s="48"/>
-      <c r="J38" s="49"/>
-      <c r="K38" s="49"/>
-      <c r="L38" s="49"/>
-      <c r="M38" s="49"/>
-      <c r="N38" s="50"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="46"/>
+      <c r="M38" s="46"/>
+      <c r="N38" s="47"/>
       <c r="O38" s="16" t="s">
         <v>49</v>
       </c>
@@ -2101,16 +1858,16 @@
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B39" s="41"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
       <c r="H39" s="10"/>
-      <c r="I39" s="48"/>
-      <c r="J39" s="49"/>
-      <c r="K39" s="49"/>
-      <c r="L39" s="49"/>
-      <c r="M39" s="49"/>
-      <c r="N39" s="50"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="46"/>
+      <c r="L39" s="46"/>
+      <c r="M39" s="46"/>
+      <c r="N39" s="47"/>
       <c r="O39" s="16" t="s">
         <v>50</v>
       </c>
@@ -2119,152 +1876,152 @@
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B40" s="41"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="41"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
       <c r="H40" s="10"/>
-      <c r="I40" s="48"/>
-      <c r="J40" s="49"/>
-      <c r="K40" s="49"/>
-      <c r="L40" s="49"/>
-      <c r="M40" s="49"/>
-      <c r="N40" s="50"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="46"/>
+      <c r="N40" s="47"/>
       <c r="O40" s="16" t="s">
         <v>51</v>
       </c>
       <c r="P40" s="16"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B41" s="41"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
       <c r="H41" s="10"/>
-      <c r="I41" s="48"/>
-      <c r="J41" s="49"/>
-      <c r="K41" s="49"/>
-      <c r="L41" s="49"/>
-      <c r="M41" s="49"/>
-      <c r="N41" s="50"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="46"/>
+      <c r="L41" s="46"/>
+      <c r="M41" s="46"/>
+      <c r="N41" s="47"/>
       <c r="O41" s="16" t="s">
         <v>53</v>
       </c>
       <c r="P41" s="16"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B42" s="41"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="41"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="52"/>
       <c r="H42" s="13"/>
-      <c r="I42" s="51"/>
-      <c r="J42" s="52"/>
-      <c r="K42" s="52"/>
-      <c r="L42" s="52"/>
-      <c r="M42" s="52"/>
-      <c r="N42" s="53"/>
+      <c r="I42" s="48"/>
+      <c r="J42" s="49"/>
+      <c r="K42" s="49"/>
+      <c r="L42" s="49"/>
+      <c r="M42" s="49"/>
+      <c r="N42" s="50"/>
       <c r="O42" s="17" t="s">
         <v>54</v>
       </c>
       <c r="P42" s="17"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B43" s="41"/>
-      <c r="C43" s="41"/>
-      <c r="D43" s="41"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="52"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B44" s="41"/>
-      <c r="C44" s="41"/>
-      <c r="D44" s="41"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="52"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B45" s="41"/>
-      <c r="C45" s="41"/>
-      <c r="D45" s="41"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B46" s="41"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="41"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="52"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B47" s="41"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="41"/>
+      <c r="B47" s="52"/>
+      <c r="C47" s="52"/>
+      <c r="D47" s="52"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B48" s="41"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
+      <c r="B48" s="52"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="52"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B49" s="41"/>
-      <c r="C49" s="41"/>
-      <c r="D49" s="41"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="52"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B50" s="41"/>
-      <c r="C50" s="41"/>
-      <c r="D50" s="41"/>
+      <c r="B50" s="52"/>
+      <c r="C50" s="52"/>
+      <c r="D50" s="52"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B51" s="41"/>
-      <c r="C51" s="41"/>
-      <c r="D51" s="41"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="52"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B52" s="41"/>
-      <c r="C52" s="41"/>
-      <c r="D52" s="41"/>
+      <c r="B52" s="52"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="52"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B53" s="41"/>
-      <c r="C53" s="41"/>
-      <c r="D53" s="41"/>
+      <c r="B53" s="52"/>
+      <c r="C53" s="52"/>
+      <c r="D53" s="52"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B54" s="41"/>
-      <c r="C54" s="41"/>
-      <c r="D54" s="41"/>
+      <c r="B54" s="52"/>
+      <c r="C54" s="52"/>
+      <c r="D54" s="52"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B55" s="41"/>
-      <c r="C55" s="41"/>
-      <c r="D55" s="41"/>
+      <c r="B55" s="52"/>
+      <c r="C55" s="52"/>
+      <c r="D55" s="52"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B56" s="41"/>
-      <c r="C56" s="41"/>
-      <c r="D56" s="41"/>
+      <c r="B56" s="52"/>
+      <c r="C56" s="52"/>
+      <c r="D56" s="52"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B57" s="41"/>
-      <c r="C57" s="41"/>
-      <c r="D57" s="41"/>
+      <c r="B57" s="52"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="52"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B58" s="41"/>
-      <c r="C58" s="41"/>
-      <c r="D58" s="41"/>
+      <c r="B58" s="52"/>
+      <c r="C58" s="52"/>
+      <c r="D58" s="52"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B59" s="41"/>
-      <c r="C59" s="41"/>
-      <c r="D59" s="41"/>
+      <c r="B59" s="52"/>
+      <c r="C59" s="52"/>
+      <c r="D59" s="52"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B60" s="41"/>
-      <c r="C60" s="41"/>
-      <c r="D60" s="41"/>
+      <c r="B60" s="52"/>
+      <c r="C60" s="52"/>
+      <c r="D60" s="52"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B61" s="41"/>
-      <c r="C61" s="41"/>
-      <c r="D61" s="41"/>
+      <c r="B61" s="52"/>
+      <c r="C61" s="52"/>
+      <c r="D61" s="52"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B62" s="42"/>
-      <c r="C62" s="42"/>
-      <c r="D62" s="42"/>
+      <c r="B62" s="53"/>
+      <c r="C62" s="53"/>
+      <c r="D62" s="53"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B63" s="26"/>
@@ -2278,10 +2035,10 @@
       <c r="B64" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="C64" s="40" t="s">
+      <c r="C64" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="D64" s="40" t="s">
+      <c r="D64" s="51" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2290,28 +2047,28 @@
       <c r="B65" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="C65" s="41"/>
-      <c r="D65" s="41"/>
+      <c r="C65" s="52"/>
+      <c r="D65" s="52"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
       <c r="B66" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="C66" s="41"/>
-      <c r="D66" s="41"/>
+      <c r="C66" s="52"/>
+      <c r="D66" s="52"/>
     </row>
     <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
-      <c r="B67" s="41" t="s">
+      <c r="B67" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="C67" s="41"/>
-      <c r="D67" s="41"/>
+      <c r="C67" s="52"/>
+      <c r="D67" s="52"/>
     </row>
     <row r="68" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
-      <c r="B68" s="41"/>
+      <c r="B68" s="52"/>
       <c r="C68" s="21" t="s">
         <v>99</v>
       </c>
@@ -2321,13 +2078,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
-      <c r="B69" s="41"/>
+      <c r="B69" s="52"/>
       <c r="C69" s="21"/>
       <c r="D69" s="21"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
-      <c r="B70" s="42"/>
+      <c r="B70" s="53"/>
       <c r="C70" s="22"/>
       <c r="D70" s="22"/>
     </row>
@@ -2341,51 +2098,51 @@
       <c r="A72" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B72" s="40" t="s">
+      <c r="B72" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="C72" s="40" t="s">
+      <c r="C72" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="D72" s="40" t="s">
+      <c r="D72" s="51" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
-      <c r="B73" s="41"/>
-      <c r="C73" s="41"/>
-      <c r="D73" s="41"/>
+      <c r="B73" s="52"/>
+      <c r="C73" s="52"/>
+      <c r="D73" s="52"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
-      <c r="B74" s="41"/>
-      <c r="C74" s="41"/>
-      <c r="D74" s="41"/>
+      <c r="B74" s="52"/>
+      <c r="C74" s="52"/>
+      <c r="D74" s="52"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
-      <c r="B75" s="41"/>
-      <c r="C75" s="41"/>
-      <c r="D75" s="41"/>
+      <c r="B75" s="52"/>
+      <c r="C75" s="52"/>
+      <c r="D75" s="52"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
-      <c r="B76" s="41"/>
-      <c r="C76" s="41"/>
-      <c r="D76" s="41"/>
+      <c r="B76" s="52"/>
+      <c r="C76" s="52"/>
+      <c r="D76" s="52"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="4"/>
-      <c r="B77" s="41"/>
-      <c r="C77" s="41"/>
-      <c r="D77" s="41"/>
+      <c r="B77" s="52"/>
+      <c r="C77" s="52"/>
+      <c r="D77" s="52"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
-      <c r="B78" s="42"/>
-      <c r="C78" s="42"/>
-      <c r="D78" s="42"/>
+      <c r="B78" s="53"/>
+      <c r="C78" s="53"/>
+      <c r="D78" s="53"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
@@ -2397,142 +2154,142 @@
       <c r="A81" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B81" s="40" t="s">
+      <c r="B81" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="C81" s="40" t="s">
+      <c r="C81" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="D81" s="40" t="s">
+      <c r="D81" s="51" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="5"/>
-      <c r="B82" s="41"/>
-      <c r="C82" s="41"/>
-      <c r="D82" s="41"/>
+      <c r="B82" s="52"/>
+      <c r="C82" s="52"/>
+      <c r="D82" s="52"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
-      <c r="B83" s="41"/>
-      <c r="C83" s="41"/>
-      <c r="D83" s="41"/>
+      <c r="B83" s="52"/>
+      <c r="C83" s="52"/>
+      <c r="D83" s="52"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B84" s="41"/>
-      <c r="C84" s="41"/>
-      <c r="D84" s="41"/>
+      <c r="B84" s="52"/>
+      <c r="C84" s="52"/>
+      <c r="D84" s="52"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B85" s="41"/>
-      <c r="C85" s="41"/>
-      <c r="D85" s="41"/>
+      <c r="B85" s="52"/>
+      <c r="C85" s="52"/>
+      <c r="D85" s="52"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B86" s="41"/>
-      <c r="C86" s="41"/>
-      <c r="D86" s="41"/>
+      <c r="B86" s="52"/>
+      <c r="C86" s="52"/>
+      <c r="D86" s="52"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B87" s="41"/>
-      <c r="C87" s="41"/>
-      <c r="D87" s="41"/>
+      <c r="B87" s="52"/>
+      <c r="C87" s="52"/>
+      <c r="D87" s="52"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B88" s="41"/>
-      <c r="C88" s="41"/>
-      <c r="D88" s="41"/>
+      <c r="B88" s="52"/>
+      <c r="C88" s="52"/>
+      <c r="D88" s="52"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B89" s="41"/>
-      <c r="C89" s="41"/>
-      <c r="D89" s="41"/>
+      <c r="B89" s="52"/>
+      <c r="C89" s="52"/>
+      <c r="D89" s="52"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B90" s="41"/>
-      <c r="C90" s="41"/>
-      <c r="D90" s="41"/>
+      <c r="B90" s="52"/>
+      <c r="C90" s="52"/>
+      <c r="D90" s="52"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B91" s="41"/>
-      <c r="C91" s="41"/>
-      <c r="D91" s="41"/>
+      <c r="B91" s="52"/>
+      <c r="C91" s="52"/>
+      <c r="D91" s="52"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B92" s="41"/>
-      <c r="C92" s="41"/>
-      <c r="D92" s="41"/>
+      <c r="B92" s="52"/>
+      <c r="C92" s="52"/>
+      <c r="D92" s="52"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B93" s="41"/>
-      <c r="C93" s="41"/>
-      <c r="D93" s="41"/>
+      <c r="B93" s="52"/>
+      <c r="C93" s="52"/>
+      <c r="D93" s="52"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B94" s="41"/>
-      <c r="C94" s="41"/>
-      <c r="D94" s="41"/>
+      <c r="B94" s="52"/>
+      <c r="C94" s="52"/>
+      <c r="D94" s="52"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B95" s="41"/>
-      <c r="C95" s="41"/>
-      <c r="D95" s="41"/>
+      <c r="B95" s="52"/>
+      <c r="C95" s="52"/>
+      <c r="D95" s="52"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B96" s="41"/>
-      <c r="C96" s="41"/>
-      <c r="D96" s="41"/>
+      <c r="B96" s="52"/>
+      <c r="C96" s="52"/>
+      <c r="D96" s="52"/>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B97" s="41"/>
-      <c r="C97" s="41"/>
-      <c r="D97" s="41"/>
+      <c r="B97" s="52"/>
+      <c r="C97" s="52"/>
+      <c r="D97" s="52"/>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B98" s="41"/>
-      <c r="C98" s="41"/>
-      <c r="D98" s="41"/>
+      <c r="B98" s="52"/>
+      <c r="C98" s="52"/>
+      <c r="D98" s="52"/>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B99" s="41"/>
-      <c r="C99" s="41"/>
-      <c r="D99" s="41"/>
+      <c r="B99" s="52"/>
+      <c r="C99" s="52"/>
+      <c r="D99" s="52"/>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B100" s="41"/>
-      <c r="C100" s="41"/>
-      <c r="D100" s="41"/>
+      <c r="B100" s="52"/>
+      <c r="C100" s="52"/>
+      <c r="D100" s="52"/>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B101" s="41"/>
-      <c r="C101" s="41"/>
-      <c r="D101" s="41"/>
+      <c r="B101" s="52"/>
+      <c r="C101" s="52"/>
+      <c r="D101" s="52"/>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B102" s="41"/>
-      <c r="C102" s="41"/>
-      <c r="D102" s="41"/>
+      <c r="B102" s="52"/>
+      <c r="C102" s="52"/>
+      <c r="D102" s="52"/>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B103" s="41"/>
-      <c r="C103" s="41"/>
-      <c r="D103" s="41"/>
+      <c r="B103" s="52"/>
+      <c r="C103" s="52"/>
+      <c r="D103" s="52"/>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B104" s="41"/>
-      <c r="C104" s="41"/>
-      <c r="D104" s="41"/>
+      <c r="B104" s="52"/>
+      <c r="C104" s="52"/>
+      <c r="D104" s="52"/>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B105" s="41"/>
-      <c r="C105" s="41"/>
-      <c r="D105" s="41"/>
+      <c r="B105" s="52"/>
+      <c r="C105" s="52"/>
+      <c r="D105" s="52"/>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B106" s="42"/>
-      <c r="C106" s="42"/>
-      <c r="D106" s="42"/>
+      <c r="B106" s="53"/>
+      <c r="C106" s="53"/>
+      <c r="D106" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -2568,534 +2325,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3BB6B79-DE9A-F547-8673-50E41AC9F730}">
-  <dimension ref="A3:F59"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.83203125" customWidth="1"/>
-    <col min="3" max="3" width="28.83203125" customWidth="1"/>
-    <col min="4" max="4" width="29.83203125" customWidth="1"/>
-    <col min="5" max="6" width="20.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="63" t="s">
-        <v>105</v>
-      </c>
-      <c r="B3" s="64" t="s">
-        <v>106</v>
-      </c>
-      <c r="C3" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="D3" s="64" t="s">
-        <v>108</v>
-      </c>
-      <c r="E3" s="64" t="s">
-        <v>109</v>
-      </c>
-      <c r="F3" s="65" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="66">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" s="68" t="s">
-        <v>112</v>
-      </c>
-      <c r="D4" s="68" t="s">
-        <v>113</v>
-      </c>
-      <c r="E4" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="F4" s="69" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="66">
-        <v>1</v>
-      </c>
-      <c r="B5" s="68" t="s">
-        <v>116</v>
-      </c>
-      <c r="C5" s="68" t="s">
-        <v>117</v>
-      </c>
-      <c r="D5" s="84" t="s">
-        <v>118</v>
-      </c>
-      <c r="E5" s="67" t="s">
-        <v>119</v>
-      </c>
-      <c r="F5" s="69" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="70">
-        <v>2</v>
-      </c>
-      <c r="B6" s="71" t="s">
-        <v>121</v>
-      </c>
-      <c r="C6" s="72" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" s="71" t="s">
-        <v>114</v>
-      </c>
-      <c r="E6" s="72" t="s">
-        <v>123</v>
-      </c>
-      <c r="F6" s="90" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="73"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-    </row>
-    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="73"/>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-    </row>
-    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="73"/>
-      <c r="B9" s="73">
-        <v>0</v>
-      </c>
-      <c r="C9" s="73">
-        <v>1</v>
-      </c>
-      <c r="D9" s="73">
-        <v>2</v>
-      </c>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-    </row>
-    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="75"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-    </row>
-    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="75" t="s">
-        <v>125</v>
-      </c>
-      <c r="B11" s="88" t="s">
-        <v>142</v>
-      </c>
-      <c r="C11" s="74" t="s">
-        <v>141</v>
-      </c>
-      <c r="D11" s="74" t="s">
-        <v>147</v>
-      </c>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-    </row>
-    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="75"/>
-      <c r="B12" s="88"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-    </row>
-    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="75"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-    </row>
-    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="75" t="s">
-        <v>126</v>
-      </c>
-      <c r="B14" s="73" t="s">
-        <v>109</v>
-      </c>
-      <c r="C14" s="73" t="s">
-        <v>108</v>
-      </c>
-      <c r="D14" s="73" t="s">
-        <v>106</v>
-      </c>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-    </row>
-    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="75"/>
-      <c r="B15" s="73" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15" s="73" t="s">
-        <v>134</v>
-      </c>
-      <c r="D15" s="73" t="s">
-        <v>108</v>
-      </c>
-      <c r="E15" s="73"/>
-    </row>
-    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="75"/>
-      <c r="B16" s="73"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73" t="s">
-        <v>143</v>
-      </c>
-      <c r="E16" s="73"/>
-    </row>
-    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="75"/>
-      <c r="B17" s="73"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-    </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="75" t="s">
-        <v>127</v>
-      </c>
-      <c r="B18" s="81" t="s">
-        <v>128</v>
-      </c>
-      <c r="C18" s="93" t="s">
-        <v>135</v>
-      </c>
-      <c r="D18" s="85" t="s">
-        <v>140</v>
-      </c>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-    </row>
-    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="75"/>
-      <c r="B19" s="82"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-    </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="75"/>
-      <c r="B20" s="82" t="s">
-        <v>129</v>
-      </c>
-      <c r="C20" s="87"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-    </row>
-    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="75"/>
-      <c r="B21" s="82"/>
-      <c r="C21" s="79" t="s">
-        <v>136</v>
-      </c>
-      <c r="D21" s="80" t="s">
-        <v>139</v>
-      </c>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-    </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="75"/>
-      <c r="B22" s="77" t="s">
-        <v>130</v>
-      </c>
-      <c r="C22" s="79"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-    </row>
-    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="73"/>
-      <c r="B23" s="78"/>
-      <c r="C23" s="94"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-    </row>
-    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="73"/>
-      <c r="B24" s="91"/>
-      <c r="C24" s="92"/>
-      <c r="D24" s="95" t="s">
-        <v>144</v>
-      </c>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-    </row>
-    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="75"/>
-      <c r="B25" s="73"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-    </row>
-    <row r="26" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="81" t="s">
-        <v>132</v>
-      </c>
-      <c r="C26" s="81" t="s">
-        <v>137</v>
-      </c>
-      <c r="D26" s="76" t="s">
-        <v>145</v>
-      </c>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-    </row>
-    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="75"/>
-      <c r="B27" s="82"/>
-      <c r="C27" s="82"/>
-      <c r="D27" s="77"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-    </row>
-    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="73"/>
-      <c r="B28" s="82"/>
-      <c r="C28" s="82"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-    </row>
-    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="73"/>
-      <c r="B29" s="82"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-    </row>
-    <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="73"/>
-      <c r="B30" s="82"/>
-      <c r="C30" s="82"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-    </row>
-    <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="73"/>
-      <c r="B31" s="82"/>
-      <c r="C31" s="82"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="73"/>
-      <c r="F31" s="73"/>
-    </row>
-    <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="73"/>
-      <c r="B32" s="82"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="73"/>
-    </row>
-    <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="73"/>
-      <c r="B33" s="82"/>
-      <c r="C33" s="82"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="73"/>
-    </row>
-    <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="73"/>
-      <c r="B34" s="82"/>
-      <c r="C34" s="82"/>
-      <c r="D34" s="77"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="73"/>
-    </row>
-    <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="73"/>
-      <c r="B35" s="82"/>
-      <c r="C35" s="82"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73"/>
-    </row>
-    <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="73"/>
-      <c r="B36" s="82"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="77"/>
-      <c r="E36" s="73"/>
-      <c r="F36" s="73"/>
-    </row>
-    <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="B37" s="82"/>
-      <c r="C37" s="82"/>
-      <c r="D37" s="77"/>
-      <c r="E37" s="73"/>
-      <c r="F37" s="73"/>
-    </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="82"/>
-      <c r="C38" s="82"/>
-      <c r="D38" s="77"/>
-    </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="82"/>
-      <c r="C39" s="82"/>
-      <c r="D39" s="77"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B40" s="82"/>
-      <c r="C40" s="82"/>
-      <c r="D40" s="77"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="82"/>
-      <c r="C41" s="82"/>
-      <c r="D41" s="77"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B42" s="83"/>
-      <c r="C42" s="83"/>
-      <c r="D42" s="78"/>
-    </row>
-    <row r="44" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="75" t="s">
-        <v>131</v>
-      </c>
-      <c r="B44" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="C44" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="D44" s="40" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B45" s="41"/>
-      <c r="C45" s="41"/>
-      <c r="D45" s="41"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B46" s="41"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="41"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B47" s="41"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="41"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B48" s="41"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B49" s="41"/>
-      <c r="C49" s="41"/>
-      <c r="D49" s="41"/>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B50" s="41"/>
-      <c r="C50" s="41"/>
-      <c r="D50" s="41"/>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B51" s="41"/>
-      <c r="C51" s="41"/>
-      <c r="D51" s="41"/>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B52" s="41"/>
-      <c r="C52" s="41"/>
-      <c r="D52" s="41"/>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B53" s="41"/>
-      <c r="C53" s="41"/>
-      <c r="D53" s="41"/>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B54" s="41"/>
-      <c r="C54" s="41"/>
-      <c r="D54" s="41"/>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B55" s="41"/>
-      <c r="C55" s="41"/>
-      <c r="D55" s="41"/>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B56" s="41"/>
-      <c r="C56" s="41"/>
-      <c r="D56" s="41"/>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B57" s="41"/>
-      <c r="C57" s="41"/>
-      <c r="D57" s="41"/>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B58" s="41"/>
-      <c r="C58" s="41"/>
-      <c r="D58" s="41"/>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B59" s="42"/>
-      <c r="C59" s="42"/>
-      <c r="D59" s="42"/>
-    </row>
-  </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="D26:D42"/>
-    <mergeCell ref="D44:D59"/>
-    <mergeCell ref="B44:B59"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="C26:C42"/>
-    <mergeCell ref="C44:C59"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B26:B42"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>